--- a/output/1Y_P7_KFSDIV.xlsx
+++ b/output/1Y_P7_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E3" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="F3" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="H3" s="1">
-        <v>9854.215200000001</v>
+        <v>9814.770399999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9854.215200000001</v>
+        <v>9814.770399999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0146</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D4" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E4" s="1">
-        <v>2105.5651</v>
+        <v>2101.351</v>
       </c>
       <c r="F4" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="H4" s="1">
-        <v>20221.6363</v>
+        <v>20141.0287</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20221.6363</v>
+        <v>20141.0287</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.4986</v>
+        <v>9.5177</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0185</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.3595</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E5" s="1">
-        <v>3146.7979</v>
+        <v>3140.4955</v>
       </c>
       <c r="F5" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="H5" s="1">
-        <v>32599.2527</v>
+        <v>32468.9552</v>
       </c>
       <c r="I5" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32599.2527</v>
+        <v>32468.9552</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.5335</v>
+        <v>9.5526</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.0875</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E6" s="1">
-        <v>4112.0954</v>
+        <v>4103.8588</v>
       </c>
       <c r="F6" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="H6" s="1">
-        <v>41480.7627</v>
+        <v>41314.778</v>
       </c>
       <c r="I6" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41480.7627</v>
+        <v>41314.778</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>9.727399999999999</v>
+        <v>9.7469</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0263</v>
+        <v>-0.0272</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>10.1692</v>
       </c>
       <c r="C7" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D7" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E7" s="1">
-        <v>5103.4213</v>
+        <v>5093.2036</v>
       </c>
       <c r="F7" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="H7" s="1">
-        <v>51897.7122</v>
+        <v>51690.4139</v>
       </c>
       <c r="I7" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51897.7122</v>
+        <v>51690.4139</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>9.7973</v>
+        <v>9.817</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>1110.2658</v>
+        <v>1108.0419</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8889.734200000001</v>
+        <v>-8891.9581</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0081</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.0872</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D8" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E8" s="1">
-        <v>6086.7829</v>
+        <v>6074.5964</v>
       </c>
       <c r="F8" s="1">
-        <v>918.6309</v>
+        <v>916.7618</v>
       </c>
       <c r="H8" s="1">
-        <v>67485.3789</v>
+        <v>67215.40889999999</v>
       </c>
       <c r="I8" s="1">
-        <v>1110.2658</v>
+        <v>1108.0419</v>
       </c>
       <c r="J8" s="1">
-        <v>68595.6447</v>
+        <v>68323.45080000001</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>9.8574</v>
+        <v>9.8772</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10185.0443</v>
+        <v>-10184.6736</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1082</v>
+        <v>0.1075</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.0976</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E9" s="1">
-        <v>7005.4137</v>
+        <v>6991.3582</v>
       </c>
       <c r="F9" s="1">
-        <v>917.77</v>
+        <v>915.9044</v>
       </c>
       <c r="H9" s="1">
-        <v>77743.2795</v>
+        <v>77432.0885</v>
       </c>
       <c r="I9" s="1">
-        <v>925.2215</v>
+        <v>923.3682</v>
       </c>
       <c r="J9" s="1">
-        <v>78668.501</v>
+        <v>78355.4567</v>
       </c>
       <c r="K9" s="1">
-        <v>70185.04429999999</v>
+        <v>70184.67359999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.0187</v>
+        <v>10.0388</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10185.0443</v>
+        <v>-10184.6736</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0009</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>10.8505</v>
       </c>
       <c r="C10" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D10" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E10" s="1">
-        <v>7923.1837</v>
+        <v>7907.2626</v>
       </c>
       <c r="F10" s="1">
-        <v>938.6704999999999</v>
+        <v>936.7542999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>85970.50509999999</v>
+        <v>85626.16499999999</v>
       </c>
       <c r="I10" s="1">
-        <v>740.1772</v>
+        <v>738.6946</v>
       </c>
       <c r="J10" s="1">
-        <v>86710.6823</v>
+        <v>86364.8596</v>
       </c>
       <c r="K10" s="1">
-        <v>80370.0886</v>
+        <v>80369.34729999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.1437</v>
+        <v>10.164</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>3152.4362</v>
+        <v>3146.1112</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7032.6081</v>
+        <v>-7038.5625</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0221</v>
+        <v>-0.0225</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.8576</v>
       </c>
       <c r="C11" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D11" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E11" s="1">
-        <v>8861.8542</v>
+        <v>8844.016900000001</v>
       </c>
       <c r="F11" s="1">
-        <v>947.5658</v>
+        <v>945.4591</v>
       </c>
       <c r="H11" s="1">
-        <v>105080.3228</v>
+        <v>104659.2112</v>
       </c>
       <c r="I11" s="1">
-        <v>3707.5691</v>
+        <v>3700.1321</v>
       </c>
       <c r="J11" s="1">
-        <v>108787.8919</v>
+        <v>108359.3433</v>
       </c>
       <c r="K11" s="1">
-        <v>90555.1329</v>
+        <v>90554.0209</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2185</v>
+        <v>10.239</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11235.8564</v>
+        <v>-11233.3774</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1249</v>
+        <v>0.1245</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.5699</v>
       </c>
       <c r="C12" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D12" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E12" s="1">
-        <v>9809.42</v>
+        <v>9789.475899999999</v>
       </c>
       <c r="F12" s="1">
-        <v>893.87</v>
+        <v>891.8847</v>
       </c>
       <c r="H12" s="1">
-        <v>123303.4291</v>
+        <v>122807.0177</v>
       </c>
       <c r="I12" s="1">
-        <v>2471.7127</v>
+        <v>2466.7548</v>
       </c>
       <c r="J12" s="1">
-        <v>125775.1418</v>
+        <v>125273.7725</v>
       </c>
       <c r="K12" s="1">
-        <v>101790.9892</v>
+        <v>101787.3983</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3769</v>
+        <v>10.3976</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11235.8564</v>
+        <v>-11233.3774</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0588</v>
+        <v>0.0584</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>13.5994</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E13" s="1">
-        <v>10703.29</v>
+        <v>10681.3607</v>
       </c>
       <c r="F13" s="1">
-        <v>826.2024</v>
+        <v>824.3713</v>
       </c>
       <c r="H13" s="1">
-        <v>145558.3225</v>
+        <v>144969.5632</v>
       </c>
       <c r="I13" s="1">
-        <v>1235.8564</v>
+        <v>1233.3774</v>
       </c>
       <c r="J13" s="1">
-        <v>146794.1789</v>
+        <v>146202.9406</v>
       </c>
       <c r="K13" s="1">
-        <v>113026.8456</v>
+        <v>113020.7757</v>
       </c>
       <c r="L13" s="1">
-        <v>10.56</v>
+        <v>10.5811</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4414.239</v>
+        <v>4405.2642</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6821.6173</v>
+        <v>-6828.1132</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.08119999999999999</v>
+        <v>0.0808</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>14.6663</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E14" s="1">
-        <v>11529.4924</v>
+        <v>11505.7319</v>
       </c>
       <c r="F14" s="1">
-        <v>-11529.4924</v>
+        <v>-11505.7319</v>
       </c>
       <c r="H14" s="1">
-        <v>169094.9943</v>
+        <v>168409.3982</v>
       </c>
       <c r="I14" s="1">
-        <v>4414.239</v>
+        <v>4405.2642</v>
       </c>
       <c r="J14" s="1">
-        <v>173509.2333</v>
+        <v>172814.6623</v>
       </c>
       <c r="K14" s="1">
-        <v>124262.702</v>
+        <v>124254.1531</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7778</v>
+        <v>10.7993</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>169094.9943</v>
+        <v>168409.3982</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1066</v>
+        <v>0.1063</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E3" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="F3" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9854.215200000001</v>
+        <v>9814.770399999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9854.215200000001</v>
+        <v>9814.770399999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0146</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D4" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E4" s="1">
-        <v>2105.5651</v>
+        <v>2101.351</v>
       </c>
       <c r="F4" s="1">
-        <v>1018.1659</v>
+        <v>1028.6048</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20221.6363</v>
+        <v>20141.0287</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20221.6363</v>
+        <v>20141.0287</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.4986</v>
+        <v>9.5177</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9778.4655</v>
+        <v>-9898.5726</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0185</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.3595</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E5" s="1">
-        <v>3123.731</v>
+        <v>3129.9558</v>
       </c>
       <c r="F5" s="1">
-        <v>737.4592</v>
+        <v>738.9652</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>32360.2911</v>
+        <v>32359.9866</v>
       </c>
       <c r="I5" s="1">
-        <v>221.5345</v>
+        <v>101.4274</v>
       </c>
       <c r="J5" s="1">
-        <v>32581.8256</v>
+        <v>32461.414</v>
       </c>
       <c r="K5" s="1">
-        <v>29778.4655</v>
+        <v>29898.5726</v>
       </c>
       <c r="L5" s="1">
-        <v>9.532999999999999</v>
+        <v>9.5524</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7639.7089</v>
+        <v>-7670.6804</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0781</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.0875</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E6" s="1">
-        <v>3861.1902</v>
+        <v>3868.921</v>
       </c>
       <c r="F6" s="1">
-        <v>1095.4393</v>
+        <v>1097.654</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38949.7563</v>
+        <v>38949.588</v>
       </c>
       <c r="I6" s="1">
-        <v>2581.8256</v>
+        <v>2430.747</v>
       </c>
       <c r="J6" s="1">
-        <v>41531.5819</v>
+        <v>41380.3349</v>
       </c>
       <c r="K6" s="1">
-        <v>37418.1744</v>
+        <v>37569.253</v>
       </c>
       <c r="L6" s="1">
-        <v>9.690799999999999</v>
+        <v>9.7105</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11050.2437</v>
+        <v>-11094.7573</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0247</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>10.1692</v>
       </c>
       <c r="C7" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D7" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E7" s="1">
-        <v>4956.6295</v>
+        <v>4966.575</v>
       </c>
       <c r="F7" s="1">
-        <v>943.5396</v>
+        <v>945.3958</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50404.9566</v>
+        <v>50405.2725</v>
       </c>
       <c r="I7" s="1">
-        <v>1531.5819</v>
+        <v>1335.9897</v>
       </c>
       <c r="J7" s="1">
-        <v>51936.5385</v>
+        <v>51741.2622</v>
       </c>
       <c r="K7" s="1">
-        <v>48468.4181</v>
+        <v>48664.0103</v>
       </c>
       <c r="L7" s="1">
-        <v>9.778499999999999</v>
+        <v>9.798299999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>1042.5214</v>
+        <v>1044.6087</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8552.522000000001</v>
+        <v>-8588.5964</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.007900000000000001</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.0872</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D8" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E8" s="1">
-        <v>5900.1691</v>
+        <v>5911.9708</v>
       </c>
       <c r="F8" s="1">
-        <v>413.4177</v>
+        <v>414.2832</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>65416.3553</v>
+        <v>65415.9564</v>
       </c>
       <c r="I8" s="1">
-        <v>2979.0599</v>
+        <v>2747.3933</v>
       </c>
       <c r="J8" s="1">
-        <v>68395.4152</v>
+        <v>68163.34970000001</v>
       </c>
       <c r="K8" s="1">
-        <v>58063.4615</v>
+        <v>58297.2154</v>
       </c>
       <c r="L8" s="1">
-        <v>9.840999999999999</v>
+        <v>9.860900000000001</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4583.6447</v>
+        <v>-4602.4378</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1043</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.0976</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E9" s="1">
-        <v>6313.5868</v>
+        <v>6326.254</v>
       </c>
       <c r="F9" s="1">
-        <v>895.179</v>
+        <v>896.9615</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70065.66130000001</v>
+        <v>70065.79300000001</v>
       </c>
       <c r="I9" s="1">
-        <v>8395.415199999999</v>
+        <v>8144.9555</v>
       </c>
       <c r="J9" s="1">
-        <v>78461.0765</v>
+        <v>78210.74860000001</v>
       </c>
       <c r="K9" s="1">
-        <v>62647.1062</v>
+        <v>62899.6531</v>
       </c>
       <c r="L9" s="1">
-        <v>9.922599999999999</v>
+        <v>9.942600000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9934.3387</v>
+        <v>-9974.031999999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0008</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>10.8505</v>
       </c>
       <c r="C10" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D10" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E10" s="1">
-        <v>7208.7659</v>
+        <v>7223.2154</v>
       </c>
       <c r="F10" s="1">
-        <v>1085.7828</v>
+        <v>1087.9548</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>78218.71400000001</v>
+        <v>78218.75509999999</v>
       </c>
       <c r="I10" s="1">
-        <v>8461.076499999999</v>
+        <v>8170.9235</v>
       </c>
       <c r="J10" s="1">
-        <v>86679.7904</v>
+        <v>86389.67849999999</v>
       </c>
       <c r="K10" s="1">
-        <v>72581.4449</v>
+        <v>72873.68520000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.0685</v>
+        <v>10.0888</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2841.1141</v>
+        <v>2846.8143</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8940.172</v>
+        <v>-8981.7567</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0201</v>
+        <v>-0.0206</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.8576</v>
       </c>
       <c r="C11" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D11" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E11" s="1">
-        <v>8294.5486</v>
+        <v>8311.1702</v>
       </c>
       <c r="F11" s="1">
-        <v>138.8612</v>
+        <v>139.1294</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>98353.4399</v>
+        <v>98353.5572</v>
       </c>
       <c r="I11" s="1">
-        <v>9520.904500000001</v>
+        <v>9189.166800000001</v>
       </c>
       <c r="J11" s="1">
-        <v>107874.3444</v>
+        <v>107542.724</v>
       </c>
       <c r="K11" s="1">
-        <v>84362.7309</v>
+        <v>84702.2561</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1709</v>
+        <v>10.1914</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-1646.5601</v>
+        <v>-1653.0515</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1158</v>
+        <v>0.1157</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.5699</v>
       </c>
       <c r="C12" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D12" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E12" s="1">
-        <v>8433.409799999999</v>
+        <v>8450.2996</v>
       </c>
       <c r="F12" s="1">
-        <v>317.6543</v>
+        <v>318.2739</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>106007.1178</v>
+        <v>106007.318</v>
       </c>
       <c r="I12" s="1">
-        <v>17874.3444</v>
+        <v>17536.1153</v>
       </c>
       <c r="J12" s="1">
-        <v>123881.4622</v>
+        <v>123543.4333</v>
       </c>
       <c r="K12" s="1">
-        <v>86009.291</v>
+        <v>86355.3076</v>
       </c>
       <c r="L12" s="1">
-        <v>10.1986</v>
+        <v>10.2192</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-3992.8822</v>
+        <v>-4008.6912</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.051</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,46 +2033,46 @@
         <v>13.5994</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E13" s="1">
-        <v>8751.064</v>
+        <v>8768.573399999999</v>
       </c>
       <c r="F13" s="1">
-        <v>72.85469999999999</v>
+        <v>73.02930000000001</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>119009.2204</v>
+        <v>119008.8323</v>
       </c>
       <c r="I13" s="1">
-        <v>23881.4622</v>
+        <v>23527.4241</v>
       </c>
       <c r="J13" s="1">
-        <v>142890.6827</v>
+        <v>142536.2565</v>
       </c>
       <c r="K13" s="1">
-        <v>90002.1732</v>
+        <v>90363.9988</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2847</v>
+        <v>10.3054</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3795.0344</v>
+        <v>3802.6348</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>2804.2548</v>
+        <v>2807.4944</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0673</v>
@@ -2086,34 +2086,34 @@
         <v>14.6663</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E14" s="1">
-        <v>8823.9187</v>
+        <v>8841.602699999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8823.9187</v>
+        <v>-8841.602699999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>129414.2389</v>
+        <v>129414.5385</v>
       </c>
       <c r="I14" s="1">
-        <v>36685.7171</v>
+        <v>36334.9185</v>
       </c>
       <c r="J14" s="1">
-        <v>166099.9559</v>
+        <v>165749.457</v>
       </c>
       <c r="K14" s="1">
-        <v>90992.9528</v>
+        <v>91359.1393</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3121</v>
+        <v>10.3329</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129414.2389</v>
+        <v>129414.5385</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0864</v>
+        <v>0.0866</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E3" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="F3" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9854.215200000001</v>
+        <v>9814.770399999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9854.215200000001</v>
+        <v>9814.770399999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0146</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D4" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E4" s="1">
-        <v>2105.5651</v>
+        <v>2101.351</v>
       </c>
       <c r="F4" s="1">
-        <v>1033.8106</v>
+        <v>1039.1446</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20221.6363</v>
+        <v>20141.0287</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20221.6363</v>
+        <v>20141.0287</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.4986</v>
+        <v>9.5177</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9928.7171</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0185</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.3595</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E5" s="1">
-        <v>3139.3757</v>
+        <v>3140.4955</v>
       </c>
       <c r="F5" s="1">
-        <v>750.8701</v>
+        <v>757.5392000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>32522.3623</v>
+        <v>32468.9552</v>
       </c>
       <c r="I5" s="1">
-        <v>71.2829</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32593.6452</v>
+        <v>32468.9552</v>
       </c>
       <c r="K5" s="1">
-        <v>29928.7171</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.533300000000001</v>
+        <v>9.5526</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7778.639</v>
+        <v>-7863.4839</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0785</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.0875</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E6" s="1">
-        <v>3890.2458</v>
+        <v>3898.0347</v>
       </c>
       <c r="F6" s="1">
-        <v>1116.1984</v>
+        <v>1118.4549</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39242.8544</v>
+        <v>39242.6848</v>
       </c>
       <c r="I6" s="1">
-        <v>2292.6439</v>
+        <v>2136.5161</v>
       </c>
       <c r="J6" s="1">
-        <v>41535.4983</v>
+        <v>41379.2009</v>
       </c>
       <c r="K6" s="1">
-        <v>37707.3561</v>
+        <v>37863.4839</v>
       </c>
       <c r="L6" s="1">
-        <v>9.6928</v>
+        <v>9.7135</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11259.6519</v>
+        <v>-11305.007</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0248</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>10.1692</v>
       </c>
       <c r="C7" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D7" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E7" s="1">
-        <v>5006.4442</v>
+        <v>5016.4897</v>
       </c>
       <c r="F7" s="1">
-        <v>967.9705</v>
+        <v>969.8753</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50911.5328</v>
+        <v>50911.8518</v>
       </c>
       <c r="I7" s="1">
-        <v>1032.9921</v>
+        <v>831.5091</v>
       </c>
       <c r="J7" s="1">
-        <v>51944.5248</v>
+        <v>51743.3609</v>
       </c>
       <c r="K7" s="1">
-        <v>48967.0079</v>
+        <v>49168.4909</v>
       </c>
       <c r="L7" s="1">
-        <v>9.780799999999999</v>
+        <v>9.801399999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>1050.3664</v>
+        <v>1052.4694</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8793.119699999999</v>
+        <v>-8830.1715</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.007900000000000001</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.0872</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D8" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E8" s="1">
-        <v>5974.4148</v>
+        <v>5986.3649</v>
       </c>
       <c r="F8" s="1">
-        <v>434.669</v>
+        <v>435.5776</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>66239.5316</v>
+        <v>66239.1277</v>
       </c>
       <c r="I8" s="1">
-        <v>2239.8724</v>
+        <v>2001.3376</v>
       </c>
       <c r="J8" s="1">
-        <v>68479.40399999999</v>
+        <v>68240.46520000001</v>
       </c>
       <c r="K8" s="1">
-        <v>58810.494</v>
+        <v>59051.1318</v>
       </c>
       <c r="L8" s="1">
-        <v>9.8437</v>
+        <v>9.8643</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4819.2623</v>
+        <v>-4839.0058</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1055</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.0976</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E9" s="1">
-        <v>6409.0838</v>
+        <v>6421.9425</v>
       </c>
       <c r="F9" s="1">
-        <v>927.1049</v>
+        <v>928.9512</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71125.44839999999</v>
+        <v>71125.5821</v>
       </c>
       <c r="I9" s="1">
-        <v>7420.6101</v>
+        <v>7162.3317</v>
       </c>
       <c r="J9" s="1">
-        <v>78546.05839999999</v>
+        <v>78287.91379999999</v>
       </c>
       <c r="K9" s="1">
-        <v>63629.7563</v>
+        <v>63890.1376</v>
       </c>
       <c r="L9" s="1">
-        <v>9.928100000000001</v>
+        <v>9.948700000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10288.6395</v>
+        <v>-10329.7512</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0008</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>10.8505</v>
       </c>
       <c r="C10" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D10" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E10" s="1">
-        <v>7336.1887</v>
+        <v>7350.8937</v>
       </c>
       <c r="F10" s="1">
-        <v>1126.2009</v>
+        <v>1128.4538</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79601.3156</v>
+        <v>79601.3575</v>
       </c>
       <c r="I10" s="1">
-        <v>7131.9706</v>
+        <v>6832.5805</v>
       </c>
       <c r="J10" s="1">
-        <v>86733.2862</v>
+        <v>86433.93799999999</v>
       </c>
       <c r="K10" s="1">
-        <v>73918.3958</v>
+        <v>74219.8888</v>
       </c>
       <c r="L10" s="1">
-        <v>10.0759</v>
+        <v>10.0967</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2884.0877</v>
+        <v>2889.8741</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9335.754999999999</v>
+        <v>-9379.0144</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0205</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.8576</v>
       </c>
       <c r="C11" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D11" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E11" s="1">
-        <v>8462.3896</v>
+        <v>8479.3475</v>
       </c>
       <c r="F11" s="1">
-        <v>163.3242</v>
+        <v>163.6412</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>100343.6309</v>
+        <v>100343.7505</v>
       </c>
       <c r="I11" s="1">
-        <v>7796.2156</v>
+        <v>7453.5661</v>
       </c>
       <c r="J11" s="1">
-        <v>108139.8465</v>
+        <v>107797.3166</v>
       </c>
       <c r="K11" s="1">
-        <v>86138.2384</v>
+        <v>86488.77740000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1789</v>
+        <v>10.1999</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-1936.6332</v>
+        <v>-1944.2866</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1179</v>
+        <v>0.1178</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.5699</v>
       </c>
       <c r="C12" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D12" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E12" s="1">
-        <v>8625.7138</v>
+        <v>8642.9887</v>
       </c>
       <c r="F12" s="1">
-        <v>347.4415</v>
+        <v>348.1204</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>108424.36</v>
+        <v>108424.5648</v>
       </c>
       <c r="I12" s="1">
-        <v>15859.5824</v>
+        <v>15509.2795</v>
       </c>
       <c r="J12" s="1">
-        <v>124283.9424</v>
+        <v>123933.8443</v>
       </c>
       <c r="K12" s="1">
-        <v>88074.8717</v>
+        <v>88433.064</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2107</v>
+        <v>10.2318</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4367.3054</v>
+        <v>-4384.6111</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.052</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,46 +2801,46 @@
         <v>13.5994</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E13" s="1">
-        <v>8973.1553</v>
+        <v>8991.1091</v>
       </c>
       <c r="F13" s="1">
-        <v>97.51130000000001</v>
+        <v>97.736</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>122029.5288</v>
+        <v>122029.1309</v>
       </c>
       <c r="I13" s="1">
-        <v>21492.277</v>
+        <v>21124.6684</v>
       </c>
       <c r="J13" s="1">
-        <v>143521.8059</v>
+        <v>143153.7993</v>
       </c>
       <c r="K13" s="1">
-        <v>92442.177</v>
+        <v>92817.67509999999</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3021</v>
+        <v>10.3233</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3881.5712</v>
+        <v>3889.3449</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>2555.4763</v>
+        <v>2557.5352</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0688</v>
@@ -2854,34 +2854,34 @@
         <v>14.6663</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E14" s="1">
-        <v>9070.6666</v>
+        <v>9088.8451</v>
       </c>
       <c r="F14" s="1">
-        <v>-9070.6666</v>
+        <v>-9088.8451</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>133033.118</v>
+        <v>133033.426</v>
       </c>
       <c r="I14" s="1">
-        <v>34047.7533</v>
+        <v>33682.2037</v>
       </c>
       <c r="J14" s="1">
-        <v>167080.8713</v>
+        <v>166715.6297</v>
       </c>
       <c r="K14" s="1">
-        <v>93768.27190000001</v>
+        <v>94149.48480000001</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3375</v>
+        <v>10.3588</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>133033.118</v>
+        <v>133033.426</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0883</v>
+        <v>0.0886</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E3" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="F3" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9854.215200000001</v>
+        <v>9814.770399999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9854.215200000001</v>
+        <v>9814.770399999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0146</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D4" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E4" s="1">
-        <v>2105.5651</v>
+        <v>2101.351</v>
       </c>
       <c r="F4" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20221.6363</v>
+        <v>20141.0287</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20221.6363</v>
+        <v>20141.0287</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.4986</v>
+        <v>9.5177</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0185</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.3595</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E5" s="1">
-        <v>3146.7979</v>
+        <v>3140.4955</v>
       </c>
       <c r="F5" s="1">
-        <v>772.6973</v>
+        <v>786.8471</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32599.2527</v>
+        <v>32468.9552</v>
       </c>
       <c r="I5" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32599.2527</v>
+        <v>32468.9552</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.5335</v>
+        <v>9.5526</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8004.7573</v>
+        <v>-8167.7089</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.0875</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E6" s="1">
-        <v>3919.4951</v>
+        <v>3927.3426</v>
       </c>
       <c r="F6" s="1">
-        <v>1137.2632</v>
+        <v>1139.5621</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39537.9073</v>
+        <v>39537.7365</v>
       </c>
       <c r="I6" s="1">
-        <v>1995.2427</v>
+        <v>1832.2911</v>
       </c>
       <c r="J6" s="1">
-        <v>41533.15</v>
+        <v>41370.0276</v>
       </c>
       <c r="K6" s="1">
-        <v>38004.7573</v>
+        <v>38167.7089</v>
       </c>
       <c r="L6" s="1">
-        <v>9.696300000000001</v>
+        <v>9.718500000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11472.1428</v>
+        <v>-11518.3519</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.025</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>10.1692</v>
       </c>
       <c r="C7" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D7" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E7" s="1">
-        <v>5056.7584</v>
+        <v>5066.9047</v>
       </c>
       <c r="F7" s="1">
-        <v>992.8964999999999</v>
+        <v>994.8508</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51423.1873</v>
+        <v>51423.5095</v>
       </c>
       <c r="I7" s="1">
-        <v>523.0999</v>
+        <v>313.9391</v>
       </c>
       <c r="J7" s="1">
-        <v>51946.2872</v>
+        <v>51737.4487</v>
       </c>
       <c r="K7" s="1">
-        <v>49476.9001</v>
+        <v>49686.0609</v>
       </c>
       <c r="L7" s="1">
-        <v>9.7843</v>
+        <v>9.805999999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>1058.2637</v>
+        <v>1060.3825</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9038.699699999999</v>
+        <v>-9076.749</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.008</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.0872</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D8" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E8" s="1">
-        <v>6049.6549</v>
+        <v>6061.7555</v>
       </c>
       <c r="F8" s="1">
-        <v>456.5281</v>
+        <v>457.481</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>67073.7338</v>
+        <v>67073.3248</v>
       </c>
       <c r="I8" s="1">
-        <v>1484.4002</v>
+        <v>1237.1902</v>
       </c>
       <c r="J8" s="1">
-        <v>68558.13400000001</v>
+        <v>68310.515</v>
       </c>
       <c r="K8" s="1">
-        <v>59573.8634</v>
+        <v>59823.1924</v>
       </c>
       <c r="L8" s="1">
-        <v>9.8475</v>
+        <v>9.869</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5061.6183</v>
+        <v>-5082.3394</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1067</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>11.0976</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E9" s="1">
-        <v>6506.183</v>
+        <v>6519.2365</v>
       </c>
       <c r="F9" s="1">
-        <v>959.9994</v>
+        <v>961.9114</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>72203.01639999999</v>
+        <v>72203.1522</v>
       </c>
       <c r="I9" s="1">
-        <v>6422.7819</v>
+        <v>6154.8507</v>
       </c>
       <c r="J9" s="1">
-        <v>78625.79829999999</v>
+        <v>78358.00290000001</v>
       </c>
       <c r="K9" s="1">
-        <v>64635.4818</v>
+        <v>64905.5318</v>
       </c>
       <c r="L9" s="1">
-        <v>9.9345</v>
+        <v>9.956</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10653.6892</v>
+        <v>-10696.2623</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0009</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>10.8505</v>
       </c>
       <c r="C10" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D10" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E10" s="1">
-        <v>7466.1824</v>
+        <v>7481.1479</v>
       </c>
       <c r="F10" s="1">
-        <v>1168.0071</v>
+        <v>1170.3437</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>81011.81200000001</v>
+        <v>81011.85460000001</v>
       </c>
       <c r="I10" s="1">
-        <v>5769.0927</v>
+        <v>5458.5884</v>
       </c>
       <c r="J10" s="1">
-        <v>86780.9047</v>
+        <v>86470.443</v>
       </c>
       <c r="K10" s="1">
-        <v>75289.171</v>
+        <v>75601.7941</v>
       </c>
       <c r="L10" s="1">
-        <v>10.084</v>
+        <v>10.1056</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2927.7823</v>
+        <v>2933.6564</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9745.678400000001</v>
+        <v>-9790.6716</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0208</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.8576</v>
       </c>
       <c r="C11" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D11" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E11" s="1">
-        <v>8634.1895</v>
+        <v>8651.491599999999</v>
       </c>
       <c r="F11" s="1">
-        <v>189.0231</v>
+        <v>189.3914</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>102380.7649</v>
+        <v>102380.8869</v>
       </c>
       <c r="I11" s="1">
-        <v>6023.4143</v>
+        <v>5667.9167</v>
       </c>
       <c r="J11" s="1">
-        <v>108404.1792</v>
+        <v>108048.8037</v>
       </c>
       <c r="K11" s="1">
-        <v>87962.6317</v>
+        <v>88326.1222</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1877</v>
+        <v>10.2094</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-2241.3605</v>
+        <v>-2250.2346</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1201</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.5699</v>
       </c>
       <c r="C12" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D12" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E12" s="1">
-        <v>8823.212600000001</v>
+        <v>8840.883</v>
       </c>
       <c r="F12" s="1">
-        <v>378.7975</v>
+        <v>379.5387</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>110906.8997</v>
+        <v>110907.1091</v>
       </c>
       <c r="I12" s="1">
-        <v>13782.0538</v>
+        <v>13417.6822</v>
       </c>
       <c r="J12" s="1">
-        <v>124688.9535</v>
+        <v>124324.7913</v>
       </c>
       <c r="K12" s="1">
-        <v>90203.99219999999</v>
+        <v>90576.35679999999</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2235</v>
+        <v>10.2452</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4761.4469</v>
+        <v>-4780.3283</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0531</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>13.5994</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E13" s="1">
-        <v>9202.0101</v>
+        <v>9220.421700000001</v>
       </c>
       <c r="F13" s="1">
-        <v>123.7712</v>
+        <v>124.0493</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>125141.8161</v>
+        <v>125141.408</v>
       </c>
       <c r="I13" s="1">
-        <v>19020.6069</v>
+        <v>18637.3539</v>
       </c>
       <c r="J13" s="1">
-        <v>144162.4229</v>
+        <v>143778.7618</v>
       </c>
       <c r="K13" s="1">
-        <v>94965.43919999999</v>
+        <v>95356.6851</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3201</v>
+        <v>10.3419</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3970.4457</v>
+        <v>3978.3974</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>2287.2316</v>
+        <v>2288.0269</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0703</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>14.6663</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E14" s="1">
-        <v>9325.781300000001</v>
+        <v>9344.471100000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9325.781300000001</v>
+        <v>-9344.471100000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>136774.7062</v>
+        <v>136775.0229</v>
       </c>
       <c r="I14" s="1">
-        <v>31307.8385</v>
+        <v>30925.3808</v>
       </c>
       <c r="J14" s="1">
-        <v>168082.5447</v>
+        <v>167700.4037</v>
       </c>
       <c r="K14" s="1">
-        <v>96648.6532</v>
+        <v>97047.0555</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3636</v>
+        <v>10.3855</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>136774.7062</v>
+        <v>136775.0229</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.09030000000000001</v>
+        <v>0.0905</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3690,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E3" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="F3" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9854.215200000001</v>
+        <v>9814.770399999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9854.215200000001</v>
+        <v>9814.770399999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0146</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D4" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E4" s="1">
-        <v>2105.5651</v>
+        <v>2101.351</v>
       </c>
       <c r="F4" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20221.6363</v>
+        <v>20141.0287</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20221.6363</v>
+        <v>20141.0287</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.4986</v>
+        <v>9.5177</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0185</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.3595</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E5" s="1">
-        <v>3146.7979</v>
+        <v>3140.4955</v>
       </c>
       <c r="F5" s="1">
-        <v>802.1411000000001</v>
+        <v>816.3499</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32599.2527</v>
+        <v>32468.9552</v>
       </c>
       <c r="I5" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32599.2527</v>
+        <v>32468.9552</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.5335</v>
+        <v>9.5526</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8309.7811</v>
+        <v>-8473.957</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.0875</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E6" s="1">
-        <v>3948.939</v>
+        <v>3956.8455</v>
       </c>
       <c r="F6" s="1">
-        <v>1158.6366</v>
+        <v>1140.323</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39834.9223</v>
+        <v>39834.7502</v>
       </c>
       <c r="I6" s="1">
-        <v>1690.2189</v>
+        <v>1526.043</v>
       </c>
       <c r="J6" s="1">
-        <v>41525.1413</v>
+        <v>41360.7932</v>
       </c>
       <c r="K6" s="1">
-        <v>38309.7811</v>
+        <v>38473.957</v>
       </c>
       <c r="L6" s="1">
-        <v>9.7013</v>
+        <v>9.7234</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11687.7469</v>
+        <v>-11526.043</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0252</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>10.1692</v>
       </c>
       <c r="C7" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D7" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E7" s="1">
-        <v>5107.5756</v>
+        <v>5097.1685</v>
       </c>
       <c r="F7" s="1">
-        <v>983.6046</v>
+        <v>981.3928</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51939.9582</v>
+        <v>51730.6531</v>
       </c>
       <c r="I7" s="1">
-        <v>2.472</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51942.4302</v>
+        <v>51730.6531</v>
       </c>
       <c r="K7" s="1">
-        <v>49997.528</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>9.7889</v>
+        <v>9.8094</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>1066.2135</v>
+        <v>1068.3483</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8936.2585</v>
+        <v>-8931.6517</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0081</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.0872</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D8" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E8" s="1">
-        <v>6091.1802</v>
+        <v>6078.5613</v>
       </c>
       <c r="F8" s="1">
-        <v>513.7283</v>
+        <v>539.5989</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>67534.13370000001</v>
+        <v>67259.2804</v>
       </c>
       <c r="I8" s="1">
-        <v>1066.2135</v>
+        <v>1068.3483</v>
       </c>
       <c r="J8" s="1">
-        <v>68600.3472</v>
+        <v>68327.6286</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>9.850300000000001</v>
+        <v>9.870799999999999</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5695.8083</v>
+        <v>-5994.6198</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1075</v>
+        <v>0.1069</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.0976</v>
       </c>
       <c r="C9" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D9" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E9" s="1">
-        <v>6604.9085</v>
+        <v>6618.1601</v>
       </c>
       <c r="F9" s="1">
-        <v>993.8868</v>
+        <v>995.8665</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73298.633</v>
+        <v>73298.7708</v>
       </c>
       <c r="I9" s="1">
-        <v>5370.4053</v>
+        <v>5073.7285</v>
       </c>
       <c r="J9" s="1">
-        <v>78669.0382</v>
+        <v>78372.4993</v>
       </c>
       <c r="K9" s="1">
-        <v>65695.8083</v>
+        <v>65994.6198</v>
       </c>
       <c r="L9" s="1">
-        <v>9.9465</v>
+        <v>9.9717</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11029.7581</v>
+        <v>-11073.8367</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0009</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>10.8505</v>
       </c>
       <c r="C10" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D10" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E10" s="1">
-        <v>7598.7953</v>
+        <v>7614.0267</v>
       </c>
       <c r="F10" s="1">
-        <v>1211.2426</v>
+        <v>1213.6659</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82450.72870000001</v>
+        <v>82450.7721</v>
       </c>
       <c r="I10" s="1">
-        <v>4340.6472</v>
+        <v>3999.8918</v>
       </c>
       <c r="J10" s="1">
-        <v>86791.3759</v>
+        <v>86450.66379999999</v>
       </c>
       <c r="K10" s="1">
-        <v>76725.56630000001</v>
+        <v>77068.4565</v>
       </c>
       <c r="L10" s="1">
-        <v>10.0971</v>
+        <v>10.1219</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2972.2088</v>
+        <v>2978.1721</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10170.3794</v>
+        <v>-10217.1672</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0212</v>
+        <v>-0.0217</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.8576</v>
       </c>
       <c r="C11" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D11" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E11" s="1">
-        <v>8810.038</v>
+        <v>8827.692499999999</v>
       </c>
       <c r="F11" s="1">
-        <v>216.0058</v>
+        <v>216.4279</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>104465.9062</v>
+        <v>104466.0307</v>
       </c>
       <c r="I11" s="1">
-        <v>4170.2678</v>
+        <v>3782.7245</v>
       </c>
       <c r="J11" s="1">
-        <v>108636.174</v>
+        <v>108248.7552</v>
       </c>
       <c r="K11" s="1">
-        <v>89868.1545</v>
+        <v>90263.79580000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2007</v>
+        <v>10.2251</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-2561.3105</v>
+        <v>-2571.4663</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1224</v>
+        <v>0.1223</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.5699</v>
       </c>
       <c r="C12" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D12" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E12" s="1">
-        <v>9026.043799999999</v>
+        <v>9044.1204</v>
       </c>
       <c r="F12" s="1">
-        <v>411.7899</v>
+        <v>412.5967</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>113456.4677</v>
+        <v>113456.6819</v>
       </c>
       <c r="I12" s="1">
-        <v>11608.9573</v>
+        <v>11211.2582</v>
       </c>
       <c r="J12" s="1">
-        <v>125065.425</v>
+        <v>124667.9401</v>
       </c>
       <c r="K12" s="1">
-        <v>92429.4651</v>
+        <v>92835.26210000001</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2403</v>
+        <v>10.2647</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5176.1573</v>
+        <v>-5196.6967</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0542</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>13.5994</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E13" s="1">
-        <v>9437.8336</v>
+        <v>9456.7171</v>
       </c>
       <c r="F13" s="1">
-        <v>151.7155</v>
+        <v>152.0504</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>128348.8747</v>
+        <v>128348.4561</v>
       </c>
       <c r="I13" s="1">
-        <v>16432.8</v>
+        <v>16014.5616</v>
       </c>
       <c r="J13" s="1">
-        <v>144781.6747</v>
+        <v>144363.0177</v>
       </c>
       <c r="K13" s="1">
-        <v>97605.6223</v>
+        <v>98031.95879999999</v>
       </c>
       <c r="L13" s="1">
-        <v>10.342</v>
+        <v>10.3664</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4061.7197</v>
+        <v>4069.8542</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>1998.48</v>
+        <v>1997.9244</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.07190000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>14.6663</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E14" s="1">
-        <v>9589.5491</v>
+        <v>9608.7675</v>
       </c>
       <c r="F14" s="1">
-        <v>-9589.5491</v>
+        <v>-9608.7675</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>140643.2043</v>
+        <v>140643.5299</v>
       </c>
       <c r="I14" s="1">
-        <v>28431.2801</v>
+        <v>28012.486</v>
       </c>
       <c r="J14" s="1">
-        <v>169074.4844</v>
+        <v>168656.0159</v>
       </c>
       <c r="K14" s="1">
-        <v>99668.86199999999</v>
+        <v>100103.8885</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3935</v>
+        <v>10.418</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>140643.2043</v>
+        <v>140643.5299</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.09229999999999999</v>
+        <v>0.0926</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.7778</v>
+        <v>10.7993</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3121</v>
+        <v>10.3329</v>
       </c>
       <c r="E3" s="1">
-        <v>10.3375</v>
+        <v>10.3588</v>
       </c>
       <c r="F3" s="1">
-        <v>10.3636</v>
+        <v>10.3855</v>
       </c>
       <c r="G3" s="1">
-        <v>10.3935</v>
+        <v>10.418</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.4466</v>
       </c>
       <c r="C4" s="3">
-        <v>0.523</v>
+        <v>0.5107</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4706</v>
+        <v>0.4612</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4784</v>
+        <v>0.4688</v>
       </c>
       <c r="F4" s="3">
-        <v>0.4862</v>
+        <v>0.4763</v>
       </c>
       <c r="G4" s="3">
-        <v>0.4935</v>
+        <v>0.4832</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1569</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1842</v>
+        <v>0.1856</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1678</v>
+        <v>0.1697</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1703</v>
+        <v>0.1723</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1729</v>
+        <v>0.1748</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1754</v>
+        <v>0.1772</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>2.7177</v>
       </c>
       <c r="C6" s="4">
-        <v>2.7295</v>
+        <v>2.6425</v>
       </c>
       <c r="D6" s="4">
-        <v>2.6843</v>
+        <v>2.5982</v>
       </c>
       <c r="E6" s="4">
-        <v>2.6894</v>
+        <v>2.6034</v>
       </c>
       <c r="F6" s="4">
-        <v>2.6939</v>
+        <v>2.6077</v>
       </c>
       <c r="G6" s="4">
-        <v>2.6977</v>
+        <v>2.6113</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.9304</v>
+        <v>0.9172</v>
       </c>
       <c r="D7" s="3">
-        <v>0.9035</v>
+        <v>0.8925</v>
       </c>
       <c r="E7" s="3">
-        <v>0.907</v>
+        <v>0.8958</v>
       </c>
       <c r="F7" s="3">
-        <v>0.9104</v>
+        <v>0.899</v>
       </c>
       <c r="G7" s="3">
-        <v>0.9134</v>
+        <v>0.9019</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8676.941000000001</v>
+        <v>8659.4172</v>
       </c>
       <c r="D8" s="1">
-        <v>7678.6698</v>
+        <v>7694.0577</v>
       </c>
       <c r="E8" s="1">
-        <v>7816.0253</v>
+        <v>7831.6884</v>
       </c>
       <c r="F8" s="1">
-        <v>7956.4917</v>
+        <v>7972.4363</v>
       </c>
       <c r="G8" s="1">
-        <v>8100.1421</v>
+        <v>8116.3745</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P7_KFSDIV.xlsx
+++ b/output/1Y_P7_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.568899999999999</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.429399999999999</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.603999999999999</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.3595</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.0875</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1692</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.0872</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.0976</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.8505</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.8576</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5699</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5994</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6663</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>9058.0702</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.3931</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.8235</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.7801</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.7374</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.6942</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
